--- a/JupyterNotebooks/AveragedIntensites/Gamma1F-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/Gamma1F-HW35.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Gamma1F-HW35.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="Gamma1F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1064,6 +1064,47 @@
         <v>0.9967474868538542</v>
       </c>
     </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.013849313885671</v>
+      </c>
+      <c r="D16">
+        <v>0.9229541462827703</v>
+      </c>
+      <c r="E16">
+        <v>1.011873886281002</v>
+      </c>
+      <c r="F16">
+        <v>1.013849313885671</v>
+      </c>
+      <c r="G16">
+        <v>0.960652774054112</v>
+      </c>
+      <c r="H16">
+        <v>1.041031941877974</v>
+      </c>
+      <c r="I16">
+        <v>1.012512863396901</v>
+      </c>
+      <c r="J16">
+        <v>0.9229541462827703</v>
+      </c>
+      <c r="K16">
+        <v>0.9674140162818861</v>
+      </c>
+      <c r="L16">
+        <v>0.9906316650837783</v>
+      </c>
+      <c r="M16">
+        <v>0.9938124876297384</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/Gamma1F-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/Gamma1F-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.013849313885671</v>

--- a/JupyterNotebooks/AveragedIntensites/Gamma1F-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/Gamma1F-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.028328</v>
+        <v>1.013849313885671</v>
       </c>
       <c r="D10">
-        <v>0.8189080000000011</v>
+        <v>0.9229541462827703</v>
       </c>
       <c r="E10">
-        <v>1.039387999999999</v>
+        <v>1.011873886281002</v>
       </c>
       <c r="F10">
-        <v>1.028328</v>
+        <v>1.013849313885671</v>
       </c>
       <c r="G10">
-        <v>0.9158160000000002</v>
+        <v>0.960652774054112</v>
       </c>
       <c r="H10">
-        <v>1.115243999999999</v>
+        <v>1.041031941877974</v>
       </c>
       <c r="I10">
-        <v>1.038343999999999</v>
+        <v>1.012512863396901</v>
       </c>
       <c r="J10">
-        <v>0.8189080000000011</v>
+        <v>0.9229541462827703</v>
       </c>
       <c r="K10">
-        <v>0.9291480000000002</v>
+        <v>0.9674140162818861</v>
       </c>
       <c r="L10">
-        <v>0.9787380000000001</v>
+        <v>0.9906316650837783</v>
       </c>
       <c r="M10">
-        <v>0.9926713333333331</v>
+        <v>0.9938124876297384</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.05</v>
+        <v>1.00014273700017</v>
       </c>
       <c r="D11">
-        <v>0.6899999999999999</v>
+        <v>0.9684239342159544</v>
       </c>
       <c r="E11">
-        <v>1.07</v>
+        <v>1.004894700758721</v>
       </c>
       <c r="F11">
-        <v>1.05</v>
+        <v>1.00014273700017</v>
       </c>
       <c r="G11">
-        <v>0.86</v>
+        <v>0.9806277731655929</v>
       </c>
       <c r="H11">
-        <v>1.2</v>
+        <v>1.01989118052493</v>
       </c>
       <c r="I11">
-        <v>1.07</v>
+        <v>1.002346189866539</v>
       </c>
       <c r="J11">
-        <v>0.6899999999999999</v>
+        <v>0.9684239342159544</v>
       </c>
       <c r="K11">
-        <v>0.88</v>
+        <v>0.9866593174873377</v>
       </c>
       <c r="L11">
-        <v>0.9650000000000001</v>
+        <v>0.9934010272437537</v>
       </c>
       <c r="M11">
-        <v>0.9900000000000001</v>
+        <v>0.9960544192553177</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.028069541068803</v>
+        <v>1.00011158192021</v>
       </c>
       <c r="D12">
-        <v>0.819464077107205</v>
+        <v>0.9686591048010311</v>
       </c>
       <c r="E12">
-        <v>1.039250154496</v>
+        <v>1.004870083695703</v>
       </c>
       <c r="F12">
-        <v>1.028069541068803</v>
+        <v>1.00011158192021</v>
       </c>
       <c r="G12">
-        <v>0.9160449341440041</v>
+        <v>0.9807042768308752</v>
       </c>
       <c r="H12">
-        <v>1.114363213004794</v>
+        <v>1.01976066362106</v>
       </c>
       <c r="I12">
-        <v>1.038279307468797</v>
+        <v>1.00228706557193</v>
       </c>
       <c r="J12">
-        <v>0.819464077107205</v>
+        <v>0.9686591048010311</v>
       </c>
       <c r="K12">
-        <v>0.9293571158016023</v>
+        <v>0.9867645942483673</v>
       </c>
       <c r="L12">
-        <v>0.9787133284352026</v>
+        <v>0.9934380880842888</v>
       </c>
       <c r="M12">
-        <v>0.9925785378816006</v>
+        <v>0.9960654627401352</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.995287826776786</v>
+        <v>1.000159092737074</v>
       </c>
       <c r="D13">
-        <v>0.9962186513699979</v>
+        <v>0.9684999677098959</v>
       </c>
       <c r="E13">
-        <v>0.9969416023052503</v>
+        <v>1.004879091491546</v>
       </c>
       <c r="F13">
-        <v>0.995287826776786</v>
+        <v>1.000159092737074</v>
       </c>
       <c r="G13">
-        <v>0.9957110568673143</v>
+        <v>0.9805882720709517</v>
       </c>
       <c r="H13">
-        <v>0.9971101070422019</v>
+        <v>1.01989030710423</v>
       </c>
       <c r="I13">
-        <v>0.9960247792402397</v>
+        <v>1.002322878855956</v>
       </c>
       <c r="J13">
-        <v>0.9962186513699979</v>
+        <v>0.9684999677098959</v>
       </c>
       <c r="K13">
-        <v>0.9965801268376241</v>
+        <v>0.986689529600721</v>
       </c>
       <c r="L13">
-        <v>0.995933976807205</v>
+        <v>0.9934243111688974</v>
       </c>
       <c r="M13">
-        <v>0.9962156706002984</v>
+        <v>0.9960566016616088</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9952648451015624</v>
+        <v>1.028328</v>
       </c>
       <c r="D14">
-        <v>1.003315778163301</v>
+        <v>0.8189080000000011</v>
       </c>
       <c r="E14">
-        <v>0.9945721139656404</v>
+        <v>1.039387999999999</v>
       </c>
       <c r="F14">
-        <v>0.9952648451015624</v>
+        <v>1.028328</v>
       </c>
       <c r="G14">
-        <v>1.001215824023769</v>
+        <v>0.9158160000000002</v>
       </c>
       <c r="H14">
-        <v>0.9912214706489111</v>
+        <v>1.115243999999999</v>
       </c>
       <c r="I14">
-        <v>0.9952533546812806</v>
+        <v>1.038343999999999</v>
       </c>
       <c r="J14">
-        <v>1.003315778163301</v>
+        <v>0.8189080000000011</v>
       </c>
       <c r="K14">
-        <v>0.9989439460644705</v>
+        <v>0.9291480000000002</v>
       </c>
       <c r="L14">
-        <v>0.9971043955830166</v>
+        <v>0.9787380000000001</v>
       </c>
       <c r="M14">
-        <v>0.9968072310974107</v>
+        <v>0.9926713333333331</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.990152256744693</v>
+        <v>1.05</v>
       </c>
       <c r="D15">
-        <v>1.025675533047859</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E15">
-        <v>0.9895289401362373</v>
+        <v>1.07</v>
       </c>
       <c r="F15">
-        <v>0.990152256744693</v>
+        <v>1.05</v>
       </c>
       <c r="G15">
-        <v>1.012469911095</v>
+        <v>0.86</v>
       </c>
       <c r="H15">
-        <v>0.9742612169895541</v>
+        <v>1.2</v>
       </c>
       <c r="I15">
-        <v>0.9883970631097814</v>
+        <v>1.07</v>
       </c>
       <c r="J15">
-        <v>1.025675533047859</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="K15">
-        <v>1.007602236592048</v>
+        <v>0.88</v>
       </c>
       <c r="L15">
-        <v>0.9988772466683706</v>
+        <v>0.9650000000000001</v>
       </c>
       <c r="M15">
-        <v>0.9967474868538542</v>
+        <v>0.9900000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.013849313885671</v>
+        <v>1.028069541068803</v>
       </c>
       <c r="D16">
-        <v>0.9229541462827703</v>
+        <v>0.819464077107205</v>
       </c>
       <c r="E16">
-        <v>1.011873886281002</v>
+        <v>1.039250154496</v>
       </c>
       <c r="F16">
-        <v>1.013849313885671</v>
+        <v>1.028069541068803</v>
       </c>
       <c r="G16">
-        <v>0.960652774054112</v>
+        <v>0.9160449341440041</v>
       </c>
       <c r="H16">
-        <v>1.041031941877974</v>
+        <v>1.114363213004794</v>
       </c>
       <c r="I16">
-        <v>1.012512863396901</v>
+        <v>1.038279307468797</v>
       </c>
       <c r="J16">
-        <v>0.9229541462827703</v>
+        <v>0.819464077107205</v>
       </c>
       <c r="K16">
-        <v>0.9674140162818861</v>
+        <v>0.9293571158016023</v>
       </c>
       <c r="L16">
-        <v>0.9906316650837783</v>
+        <v>0.9787133284352026</v>
       </c>
       <c r="M16">
-        <v>0.9938124876297384</v>
+        <v>0.9925785378816006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.995287826776786</v>
+      </c>
+      <c r="D17">
+        <v>0.9962186513699979</v>
+      </c>
+      <c r="E17">
+        <v>0.9969416023052503</v>
+      </c>
+      <c r="F17">
+        <v>0.995287826776786</v>
+      </c>
+      <c r="G17">
+        <v>0.9957110568673143</v>
+      </c>
+      <c r="H17">
+        <v>0.9971101070422019</v>
+      </c>
+      <c r="I17">
+        <v>0.9960247792402397</v>
+      </c>
+      <c r="J17">
+        <v>0.9962186513699979</v>
+      </c>
+      <c r="K17">
+        <v>0.9965801268376241</v>
+      </c>
+      <c r="L17">
+        <v>0.995933976807205</v>
+      </c>
+      <c r="M17">
+        <v>0.9962156706002984</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9952648451015624</v>
+      </c>
+      <c r="D18">
+        <v>1.003315778163301</v>
+      </c>
+      <c r="E18">
+        <v>0.9945721139656404</v>
+      </c>
+      <c r="F18">
+        <v>0.9952648451015624</v>
+      </c>
+      <c r="G18">
+        <v>1.001215824023769</v>
+      </c>
+      <c r="H18">
+        <v>0.9912214706489111</v>
+      </c>
+      <c r="I18">
+        <v>0.9952533546812806</v>
+      </c>
+      <c r="J18">
+        <v>1.003315778163301</v>
+      </c>
+      <c r="K18">
+        <v>0.9989439460644705</v>
+      </c>
+      <c r="L18">
+        <v>0.9971043955830166</v>
+      </c>
+      <c r="M18">
+        <v>0.9968072310974107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.990152256744693</v>
+      </c>
+      <c r="D19">
+        <v>1.025675533047859</v>
+      </c>
+      <c r="E19">
+        <v>0.9895289401362373</v>
+      </c>
+      <c r="F19">
+        <v>0.990152256744693</v>
+      </c>
+      <c r="G19">
+        <v>1.012469911095</v>
+      </c>
+      <c r="H19">
+        <v>0.9742612169895541</v>
+      </c>
+      <c r="I19">
+        <v>0.9883970631097814</v>
+      </c>
+      <c r="J19">
+        <v>1.025675533047859</v>
+      </c>
+      <c r="K19">
+        <v>1.007602236592048</v>
+      </c>
+      <c r="L19">
+        <v>0.9988772466683706</v>
+      </c>
+      <c r="M19">
+        <v>0.9967474868538542</v>
       </c>
     </row>
   </sheetData>
